--- a/bh3/505965139093191673_2021-03-25_11-23-09.xlsx
+++ b/bh3/505965139093191673_2021-03-25_11-23-09.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>4327593773</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2021-03-28 10:50:47</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44283.45193287037</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -610,10 +624,8 @@
           <t>4313419914</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2021-03-26 20:41:33</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44281.8621875</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -681,10 +693,8 @@
           <t>4320029356</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2021-03-26 20:39:25</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44281.86070601852</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -748,10 +758,8 @@
           <t>4313419914</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2021-03-26 20:35:26</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44281.85793981481</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -819,10 +827,8 @@
           <t>4313419914</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2021-03-26 20:34:52</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44281.8575462963</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -890,10 +896,8 @@
           <t>4313419914</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2021-03-26 20:32:10</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44281.8556712963</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -961,10 +965,8 @@
           <t>4313419914</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2021-03-26 15:24:04</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44281.64171296296</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1036,10 +1038,8 @@
           <t>4313419914</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2021-03-26 15:23:05</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44281.64103009259</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1111,10 +1111,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2021-03-26 00:18:38</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44281.01293981481</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1182,10 +1180,8 @@
           <t>4313419914</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2021-03-25 23:05:04</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44280.96185185185</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1253,10 +1249,8 @@
           <t>4313331339</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2021-03-25 22:02:14</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44280.9182175926</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1328,10 +1322,8 @@
           <t>4315728033</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2021-03-25 21:33:23</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44280.89818287037</v>
       </c>
       <c r="I13" t="n">
         <v>1</v>
@@ -1399,10 +1391,8 @@
           <t>4313331339</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2021-03-25 20:48:42</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44280.86715277778</v>
       </c>
       <c r="I14" t="n">
         <v>1</v>
@@ -1466,10 +1456,8 @@
           <t>4315470170</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2021-03-25 20:39:43</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44280.86091435186</v>
       </c>
       <c r="I15" t="n">
         <v>2</v>
@@ -1537,10 +1525,8 @@
           <t>4314646118</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2021-03-25 17:41:08</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44280.73689814815</v>
       </c>
       <c r="I16" t="n">
         <v>2</v>
@@ -1608,10 +1594,8 @@
           <t>4314589032</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2021-03-25 17:28:33</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44280.72815972222</v>
       </c>
       <c r="I17" t="n">
         <v>2</v>
@@ -1679,10 +1663,8 @@
           <t>4313331339</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2021-03-25 17:01:07</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44280.7091087963</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1754,10 +1736,8 @@
           <t>4313331339</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2021-03-25 16:19:39</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44280.6803125</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1821,10 +1801,8 @@
           <t>4314341747</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2021-03-25 16:19:09</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44280.67996527778</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1892,10 +1870,8 @@
           <t>4314324158</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2021-03-25 16:16:13</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44280.67792824074</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -1971,10 +1947,8 @@
           <t>4314104809</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2021-03-25 15:03:15</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44280.62725694444</v>
       </c>
       <c r="I22" t="n">
         <v>1</v>
@@ -2038,10 +2012,8 @@
           <t>4313331339</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2021-03-25 14:49:08</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44280.6174537037</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2113,10 +2085,8 @@
           <t>4314059307</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2021-03-25 14:46:36</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44280.61569444444</v>
       </c>
       <c r="I24" t="n">
         <v>1</v>
@@ -2192,10 +2162,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2021-03-25 14:29:00</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44280.60347222222</v>
       </c>
       <c r="I25" t="n">
         <v>19</v>
@@ -2267,10 +2235,8 @@
           <t>4313331339</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2021-03-25 14:15:28</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44280.59407407408</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2334,10 +2300,8 @@
           <t>4313971518</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2021-03-25 14:13:39</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44280.5928125</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2401,10 +2365,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2021-03-25 14:06:56</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44280.58814814815</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2472,10 +2434,8 @@
           <t>4313419914</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2021-03-25 14:04:42</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44280.58659722222</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2547,10 +2507,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:57:11</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44280.58137731482</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2618,10 +2576,8 @@
           <t>4313913905</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:56:13</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44280.58070601852</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2690,10 +2646,8 @@
           <t>4313905162</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:50:58</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44280.57706018518</v>
       </c>
       <c r="I32" t="n">
         <v>1</v>
@@ -2761,10 +2715,8 @@
           <t>4313490877</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:48:59</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44280.57568287037</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2836,10 +2788,8 @@
           <t>4313887417</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:46:33</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44280.57399305556</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -2911,10 +2861,8 @@
           <t>4313684640</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:32:06</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44280.56395833333</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -2998,10 +2946,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:32:03</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44280.56392361111</v>
       </c>
       <c r="I36" t="n">
         <v>5</v>
@@ -3073,10 +3019,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:20:50</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44280.55613425926</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3140,10 +3084,8 @@
           <t>4313490877</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:16:45</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44280.55329861111</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3211,10 +3153,8 @@
           <t>4313741410</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:06:08</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44280.54592592592</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3290,10 +3230,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:04:44</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44280.54495370371</v>
       </c>
       <c r="I40" t="n">
         <v>5</v>
@@ -3357,10 +3295,8 @@
           <t>4313527360</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:04:16</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44280.54462962963</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3436,10 +3372,8 @@
           <t>4313666987</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:01:52</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44280.54296296297</v>
       </c>
       <c r="I42" t="n">
         <v>1</v>
@@ -3503,10 +3437,8 @@
           <t>4313684640</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:00:10</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44280.54178240741</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3578,10 +3510,8 @@
           <t>4313706501</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:57:20</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44280.53981481482</v>
       </c>
       <c r="I44" t="n">
         <v>1</v>
@@ -3653,10 +3583,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:55:54</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44280.53881944445</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -3724,10 +3652,8 @@
           <t>4313695481</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:55:14</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44280.53835648148</v>
       </c>
       <c r="I46" t="n">
         <v>1</v>
@@ -3795,10 +3721,8 @@
           <t>4313684640</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:54:41</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44280.53797453704</v>
       </c>
       <c r="I47" t="n">
         <v>1</v>
@@ -3874,10 +3798,8 @@
           <t>4313666987</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:49:34</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44280.5344212963</v>
       </c>
       <c r="I48" t="n">
         <v>2</v>
@@ -3945,10 +3867,8 @@
           <t>4313664704</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:49:21</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44280.53427083333</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -4016,10 +3936,8 @@
           <t>4313662611</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:48:01</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44280.53334490741</v>
       </c>
       <c r="I50" t="n">
         <v>1</v>
@@ -4087,10 +4005,8 @@
           <t>4313649652</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:46:06</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44280.53201388889</v>
       </c>
       <c r="I51" t="n">
         <v>1</v>
@@ -4162,10 +4078,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:45:50</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44280.5318287037</v>
       </c>
       <c r="I52" t="n">
         <v>22</v>
@@ -4233,10 +4147,8 @@
           <t>4313647946</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:45:03</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44280.53128472222</v>
       </c>
       <c r="I53" t="n">
         <v>1</v>
@@ -4304,10 +4216,8 @@
           <t>4313638358</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:44:06</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44280.530625</v>
       </c>
       <c r="I54" t="n">
         <v>1</v>
@@ -4380,10 +4290,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:35:49</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44280.52487268519</v>
       </c>
       <c r="I55" t="n">
         <v>6</v>
@@ -4447,10 +4355,8 @@
           <t>4313602417</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:35:01</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44280.52431712963</v>
       </c>
       <c r="I56" t="n">
         <v>1</v>
@@ -4526,10 +4432,8 @@
           <t>4313560696</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:26:27</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44280.51836805556</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -4605,10 +4509,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:26:22</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44280.51831018519</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -4684,10 +4586,8 @@
           <t>4313533361</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:21:40</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44280.5150462963</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -4751,10 +4651,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:20:30</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44280.51423611111</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -4830,10 +4728,8 @@
           <t>4313527360</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:18:50</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44280.51307870371</v>
       </c>
       <c r="I61" t="n">
         <v>1</v>
@@ -4909,10 +4805,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:18:18</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44280.51270833334</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -4984,10 +4878,8 @@
           <t>4313515756</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:16:47</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44280.5116550926</v>
       </c>
       <c r="I63" t="n">
         <v>1</v>
@@ -5055,10 +4947,8 @@
           <t>4313520030</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:16:43</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44280.5116087963</v>
       </c>
       <c r="I64" t="n">
         <v>1</v>
@@ -5134,10 +5024,8 @@
           <t>4313494344</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:12:56</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44280.50898148148</v>
       </c>
       <c r="I65" t="n">
         <v>1</v>
@@ -5201,10 +5089,8 @@
           <t>4313490877</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:10:24</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44280.50722222222</v>
       </c>
       <c r="I66" t="n">
         <v>7</v>
@@ -5283,10 +5169,8 @@
           <t>4313483619</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:09:37</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44280.50667824074</v>
       </c>
       <c r="I67" t="n">
         <v>2</v>
@@ -5350,10 +5234,8 @@
           <t>4313479481</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:09:24</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44280.50652777778</v>
       </c>
       <c r="I68" t="n">
         <v>1</v>
@@ -5425,10 +5307,8 @@
           <t>4313473839</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:08:44</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44280.50606481481</v>
       </c>
       <c r="I69" t="n">
         <v>1</v>
@@ -5504,10 +5384,8 @@
           <t>4313471654</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:07:13</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44280.50501157407</v>
       </c>
       <c r="I70" t="n">
         <v>1</v>
@@ -5571,10 +5449,8 @@
           <t>4313365557</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:06:45</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44280.5046875</v>
       </c>
       <c r="I71" t="n">
         <v>1</v>
@@ -5651,10 +5527,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:06:32</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44280.50453703704</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -5718,10 +5592,8 @@
           <t>4313475413</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:06:29</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44280.50450231481</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -5793,10 +5665,8 @@
           <t>4313462432</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:04:17</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44280.50297453703</v>
       </c>
       <c r="I74" t="n">
         <v>3</v>
@@ -5860,10 +5730,8 @@
           <t>4313456800</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:03:43</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44280.50258101852</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -5935,10 +5803,8 @@
           <t>4313439552</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:59:48</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44280.49986111111</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -6014,10 +5880,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:59:45</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44280.49982638889</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -6093,10 +5957,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:55:44</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44280.49703703704</v>
       </c>
       <c r="I78" t="n">
         <v>2</v>
@@ -6172,10 +6034,8 @@
           <t>4313419914</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:55:00</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44280.49652777778</v>
       </c>
       <c r="I79" t="n">
         <v>5</v>
@@ -6247,10 +6107,8 @@
           <t>4313404181</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:50:25</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44280.49334490741</v>
       </c>
       <c r="I80" t="n">
         <v>4</v>
@@ -6326,10 +6184,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:50:04</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44280.49310185185</v>
       </c>
       <c r="I81" t="n">
         <v>1</v>
@@ -6397,10 +6253,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:49:50</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44280.49293981482</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -6472,10 +6326,8 @@
           <t>4313403433</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:49:48</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44280.49291666667</v>
       </c>
       <c r="I83" t="n">
         <v>1</v>
@@ -6551,10 +6403,8 @@
           <t>4313322691</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:49:41</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44280.49283564815</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -6626,10 +6476,8 @@
           <t>4313401901</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:48:35</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44280.49207175926</v>
       </c>
       <c r="I85" t="n">
         <v>4</v>
@@ -6698,10 +6546,8 @@
           <t>4313327984</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:45:34</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44280.48997685185</v>
       </c>
       <c r="I86" t="n">
         <v>7</v>
@@ -6777,10 +6623,8 @@
           <t>4313327984</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:43:05</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44280.48825231481</v>
       </c>
       <c r="I87" t="n">
         <v>19</v>
@@ -6848,10 +6692,8 @@
           <t>4313327984</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:41:32</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44280.48717592593</v>
       </c>
       <c r="I88" t="n">
         <v>11</v>
@@ -6927,10 +6769,8 @@
           <t>4313365557</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:40:21</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44280.48635416666</v>
       </c>
       <c r="I89" t="n">
         <v>1</v>
@@ -7006,10 +6846,8 @@
           <t>4313366184</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:39:31</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44280.48577546296</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -7081,10 +6919,8 @@
           <t>4313365557</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:39:01</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44280.48542824074</v>
       </c>
       <c r="I91" t="n">
         <v>3</v>
@@ -7160,10 +6996,8 @@
           <t>4313365546</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:39:00</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44280.48541666667</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -7239,10 +7073,8 @@
           <t>4313327984</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:37:59</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44280.48471064815</v>
       </c>
       <c r="I93" t="n">
         <v>14</v>
@@ -7318,10 +7150,8 @@
           <t>4313362125</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:37:32</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44280.48439814815</v>
       </c>
       <c r="I94" t="n">
         <v>1</v>
@@ -7381,10 +7211,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:36:23</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44280.48359953704</v>
       </c>
       <c r="I95" t="n">
         <v>4</v>
@@ -7461,10 +7289,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:36:18</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44280.48354166667</v>
       </c>
       <c r="I96" t="n">
         <v>1</v>
@@ -7532,10 +7358,8 @@
           <t>4313349217</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:34:57</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44280.48260416667</v>
       </c>
       <c r="I97" t="n">
         <v>1</v>
@@ -7603,10 +7427,8 @@
           <t>4313327984</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:34:26</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44280.48224537037</v>
       </c>
       <c r="I98" t="n">
         <v>29</v>
@@ -7674,10 +7496,8 @@
           <t>4313326853</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:34:02</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44280.48196759259</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -7741,10 +7561,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:33:48</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44280.48180555556</v>
       </c>
       <c r="I100" t="n">
         <v>1</v>
@@ -7808,10 +7626,8 @@
           <t>4313347820</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:33:39</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44280.48170138889</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -7883,10 +7699,8 @@
           <t>4313347429</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:33:19</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44280.4814699074</v>
       </c>
       <c r="I102" t="n">
         <v>2</v>
@@ -7950,10 +7764,8 @@
           <t>4313346935</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:32:53</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44280.48116898148</v>
       </c>
       <c r="I103" t="n">
         <v>8</v>
@@ -8017,10 +7829,8 @@
           <t>4313324161</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:31:49</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44280.48042824074</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
@@ -8084,10 +7894,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:30:53</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44280.4797800926</v>
       </c>
       <c r="I105" t="n">
         <v>32</v>
@@ -8163,10 +7971,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:30:31</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44280.47952546296</v>
       </c>
       <c r="I106" t="n">
         <v>213</v>
@@ -8230,10 +8036,8 @@
           <t>4313324439</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:29:12</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44280.47861111111</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
@@ -8305,10 +8109,8 @@
           <t>4313324161</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:28:55</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44280.47841435186</v>
       </c>
       <c r="I108" t="n">
         <v>2</v>
@@ -8384,10 +8186,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:28:36</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44280.47819444445</v>
       </c>
       <c r="I109" t="n">
         <v>1</v>
@@ -8451,10 +8251,8 @@
           <t>4313328303</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:28:13</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44280.47792824074</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
@@ -8518,10 +8316,8 @@
           <t>4313322812</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:28:12</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44280.47791666666</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
@@ -8589,10 +8385,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:27:56</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44280.47773148148</v>
       </c>
       <c r="I112" t="n">
         <v>127</v>
@@ -8656,10 +8450,8 @@
           <t>4313327984</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:27:56</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44280.47773148148</v>
       </c>
       <c r="I113" t="n">
         <v>18</v>
@@ -8735,10 +8527,8 @@
           <t>4313331339</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:27:46</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44280.47761574074</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -8810,10 +8600,8 @@
           <t>4313327750</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:27:42</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44280.47756944445</v>
       </c>
       <c r="I115" t="n">
         <v>8</v>
@@ -8889,10 +8677,8 @@
           <t>4313322833</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:27:40</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44280.47754629629</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
@@ -8960,10 +8746,8 @@
           <t>4313322812</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:27:39</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44280.47753472222</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
@@ -9039,10 +8823,8 @@
           <t>4313322691</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:27:31</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44280.47744212963</v>
       </c>
       <c r="I118" t="n">
         <v>8</v>
@@ -9118,10 +8900,8 @@
           <t>4313331003</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:27:28</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44280.47740740741</v>
       </c>
       <c r="I119" t="n">
         <v>3</v>
@@ -9189,10 +8969,8 @@
           <t>4313326947</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:27:24</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44280.47736111111</v>
       </c>
       <c r="I120" t="n">
         <v>6</v>
@@ -9268,10 +9046,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:27:14</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44280.47724537037</v>
       </c>
       <c r="I121" t="n">
         <v>8</v>
@@ -9347,10 +9123,8 @@
           <t>4313322288</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:27:10</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44280.47719907408</v>
       </c>
       <c r="I122" t="n">
         <v>72</v>
@@ -9422,10 +9196,8 @@
           <t>4313327124</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:27:08</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44280.47717592592</v>
       </c>
       <c r="I123" t="n">
         <v>3</v>
@@ -9493,10 +9265,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:27:05</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44280.4771412037</v>
       </c>
       <c r="I124" t="n">
         <v>12</v>
@@ -9564,10 +9334,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:27:05</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44280.4771412037</v>
       </c>
       <c r="I125" t="n">
         <v>1</v>
@@ -9643,10 +9411,8 @@
           <t>4313326977</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:26:59</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44280.47707175926</v>
       </c>
       <c r="I126" t="n">
         <v>4</v>
@@ -9714,10 +9480,8 @@
           <t>4313326947</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:26:57</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44280.47704861111</v>
       </c>
       <c r="I127" t="n">
         <v>18</v>
@@ -9789,10 +9553,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:26:56</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44280.47703703704</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
@@ -9860,10 +9622,8 @@
           <t>4313326853</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:26:51</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44280.47697916667</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
@@ -9931,10 +9691,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:26:31</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44280.47674768518</v>
       </c>
       <c r="I130" t="n">
         <v>13</v>
@@ -9998,10 +9756,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:26:17</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44280.47658564815</v>
       </c>
       <c r="I131" t="n">
         <v>10</v>
@@ -10073,10 +9829,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:26:15</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44280.4765625</v>
       </c>
       <c r="I132" t="n">
         <v>5</v>
@@ -10148,10 +9902,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:26:15</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44280.4765625</v>
       </c>
       <c r="I133" t="n">
         <v>4</v>
@@ -10227,10 +9979,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:26:13</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44280.47653935185</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
@@ -10302,10 +10052,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:26:07</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44280.47646990741</v>
       </c>
       <c r="I135" t="n">
         <v>468</v>
@@ -10381,10 +10129,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:25:59</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44280.47637731482</v>
       </c>
       <c r="I136" t="n">
         <v>27</v>
@@ -10448,10 +10194,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:25:50</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44280.47627314815</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
@@ -10523,10 +10267,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:25:47</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44280.47623842592</v>
       </c>
       <c r="I138" t="n">
         <v>2</v>
@@ -10602,10 +10344,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:25:45</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44280.47621527778</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
@@ -10673,10 +10413,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:25:43</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44280.47619212963</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
@@ -10743,10 +10481,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:25:41</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44280.47616898148</v>
       </c>
       <c r="I141" t="n">
         <v>24</v>
@@ -10810,10 +10546,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:25:37</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44280.47612268518</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
@@ -10877,10 +10611,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:25:31</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44280.47605324074</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
@@ -10948,10 +10680,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:25:30</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44280.47604166667</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
@@ -11023,10 +10753,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:25:28</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44280.47601851852</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
@@ -11098,10 +10826,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:25:22</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44280.47594907408</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
@@ -11177,10 +10903,8 @@
           <t>4313320122</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:25:07</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44280.47577546296</v>
       </c>
       <c r="I147" t="n">
         <v>1</v>
@@ -11256,10 +10980,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:25:00</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44280.47569444445</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
@@ -11335,10 +11057,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:24:58</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44280.4756712963</v>
       </c>
       <c r="I149" t="n">
         <v>1</v>
@@ -11414,10 +11134,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:24:50</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44280.47557870371</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
@@ -11485,10 +11203,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:24:43</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44280.47549768518</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
@@ -11564,10 +11280,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:24:41</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44280.47547453704</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
@@ -11639,10 +11353,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:24:34</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44280.47539351852</v>
       </c>
       <c r="I153" t="n">
         <v>1</v>
@@ -11714,10 +11426,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:24:29</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44280.47533564815</v>
       </c>
       <c r="I154" t="n">
         <v>1</v>
@@ -11793,10 +11503,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:24:21</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44280.47524305555</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
@@ -11872,10 +11580,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:24:13</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44280.47515046296</v>
       </c>
       <c r="I156" t="n">
         <v>1</v>
@@ -11939,10 +11645,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:24:12</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44280.47513888889</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
@@ -12014,10 +11718,8 @@
           <t>4313308990</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:24:06</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44280.47506944444</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
@@ -12093,10 +11795,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:24:05</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44280.47505787037</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
@@ -12156,10 +11856,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:23:53</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44280.47491898148</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
@@ -12228,10 +11926,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:23:53</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44280.47491898148</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
@@ -12303,10 +11999,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:23:48</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44280.47486111111</v>
       </c>
       <c r="I162" t="n">
         <v>21</v>
@@ -12374,10 +12068,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:23:46</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44280.47483796296</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
@@ -12449,10 +12141,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:23:38</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44280.47474537037</v>
       </c>
       <c r="I164" t="n">
         <v>1</v>
@@ -12520,10 +12210,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:23:37</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44280.4747337963</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
@@ -12599,10 +12287,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:23:37</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44280.4747337963</v>
       </c>
       <c r="I166" t="n">
         <v>5</v>
@@ -12678,10 +12364,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:23:32</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44280.47467592593</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
